--- a/trino_res_final/Keyword.xlsx
+++ b/trino_res_final/Keyword.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive\Desktop\rbda-ml-inference\rbda-ml-inference\trino_res_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CEE689C1-DBA9-4BF7-A96C-72F5B561F44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43166E75-F6F3-4594-8702-F8C0BC9228CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="16140" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-25275" yWindow="19680" windowWidth="12390" windowHeight="6615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -986,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1365,11 +1378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/trino_res_final/Keyword.xlsx
+++ b/trino_res_final/Keyword.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive\Desktop\rbda-ml-inference\rbda-ml-inference\trino_res_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43166E75-F6F3-4594-8702-F8C0BC9228CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96617415-6442-4D0F-8A52-73752E257AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-25275" yWindow="19680" windowWidth="12390" windowHeight="6615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16140" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="for_csv" sheetId="5" r:id="rId4"/>
+    <sheet name="reddit_new" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
   <si>
     <t>Word</t>
   </si>
@@ -160,6 +163,36 @@
   </si>
   <si>
     <t>All Platform</t>
+  </si>
+  <si>
+    <t>asshole</t>
+  </si>
+  <si>
+    <t>b\*tch</t>
+  </si>
+  <si>
+    <t>d\*ck</t>
+  </si>
+  <si>
+    <t>f\*\*k</t>
+  </si>
+  <si>
+    <t>f\*ck</t>
+  </si>
+  <si>
+    <t>n\*\*\*\*</t>
+  </si>
+  <si>
+    <t>n\*\*\*a</t>
+  </si>
+  <si>
+    <t>p\*ssy</t>
+  </si>
+  <si>
+    <t>s\*\*t</t>
+  </si>
+  <si>
+    <t>sh\*t</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2733,4 +2766,2301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A10C70F-A3BE-4E79-B2DE-CE16F5C5F436}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>868</v>
+      </c>
+      <c r="C2">
+        <v>266234</v>
+      </c>
+      <c r="D2">
+        <v>62251</v>
+      </c>
+      <c r="E2">
+        <v>1999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f>B2/(B$34/10000)</f>
+        <v>2.6474763267424999</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:K17" si="0">C2/(C$34/10000)</f>
+        <v>51.001360060533301</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>69.162713530198175</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>17.809367602631049</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(H2:K2)</f>
+        <v>35.155229380026256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>323</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:K33" si="1">B3/(B$34/10000)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>6.1875790843965293E-2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L33" si="2">AVERAGE(H3:K3)</f>
+        <v>1.5468947710991323E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>95995</v>
+      </c>
+      <c r="D4">
+        <v>23838</v>
+      </c>
+      <c r="E4">
+        <v>476</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.18605536397614345</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>18.389370099276928</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>26.484727396071776</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4.2407498643583681</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>12.325225680920804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6721</v>
+      </c>
+      <c r="D5">
+        <v>98</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.2875145209358845</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.10888091638623348</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4.4545691852503871E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.36023528229365542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>29176</v>
+      </c>
+      <c r="D6">
+        <v>1033</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>6.1001758680702768E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>5.5891271630449886</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.1476937410916244</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.14254621392801239</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.7350922191863321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>738</v>
+      </c>
+      <c r="C7">
+        <v>19529</v>
+      </c>
+      <c r="D7">
+        <v>2869</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.250964895317932</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.7410907721108302</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>3.1875443786949376</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.22272845926251936</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>2.3505821263465547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>41628</v>
+      </c>
+      <c r="D8">
+        <v>429</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>3.0500879340351382E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>7.9745059481504246</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.47663176662953233</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>9.8000522075508509E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>2.1380470811973753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>165</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>3.0500879340351382E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3.1608376127722208E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.16665446385647983</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>3.5636553482003099E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>5.9237370350060069E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>788</v>
+      </c>
+      <c r="C10">
+        <v>245402</v>
+      </c>
+      <c r="D10">
+        <v>70444</v>
+      </c>
+      <c r="E10">
+        <v>2426</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.4034692920196892</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>47.010658899971425</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>78.265380346039109</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>21.613569686834879</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>37.323269556216275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>281</v>
+      </c>
+      <c r="C11">
+        <v>149824</v>
+      </c>
+      <c r="D11">
+        <v>7447</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.85707470946387387</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>28.701171787635467</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>8.2738386155947019</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.80182245334506963</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>9.6584768915097783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>586</v>
+      </c>
+      <c r="D12">
+        <v>374</v>
+      </c>
+      <c r="E12">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>2.4400703472281106E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.11225762673239523</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.4155251298821564</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.81073159171557041</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.34072876295060078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1164</v>
+      </c>
+      <c r="D13">
+        <v>1158</v>
+      </c>
+      <c r="E13">
+        <v>261</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3.0500879340351384E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.22298272613738576</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.2865724609720244</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.3252851147007019</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.96633529528761586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>4640</v>
+      </c>
+      <c r="D14">
+        <v>513</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.14030404496561635</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.88886584989473361</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.56995826638916103</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>6.2363968593505417E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.41537303246075408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>4673</v>
+      </c>
+      <c r="C15">
+        <v>27484</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>14.253060915746202</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>5.2649976332988917</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>4.8795146372612734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>1368508</v>
+      </c>
+      <c r="D16">
+        <v>52570</v>
+      </c>
+      <c r="E16">
+        <v>3494</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.21655624331649481</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>262.15948847149616</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>58.406834432900965</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>31.128529466529706</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>87.977852153560832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>234</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>4.4826424326587858E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.2221327349475187E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.25836501274452245</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>7.8853191105146381E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2363</v>
+      </c>
+      <c r="C18">
+        <v>278059</v>
+      </c>
+      <c r="D18">
+        <v>37346</v>
+      </c>
+      <c r="E18">
+        <v>1651</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>7.2073577881250319</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>53.266627016353389</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>41.492517381227309</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>14.708987449696778</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>29.168872408850628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>3.6601055208421662E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>2.5669832734028945E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>4.666324987981435E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.7818276741001549E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>3.1688103640816631E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>9.5782957962794561E-3</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>3.5552952289382364E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2.6727415111502322E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>1.7964665799291037E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>8229</v>
+      </c>
+      <c r="D21">
+        <v>40656</v>
+      </c>
+      <c r="E21">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.1350615538245968E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>1.576395922151673</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>45.170025883660294</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.59691227082355192</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>11.841171173043442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>13119</v>
+      </c>
+      <c r="D22">
+        <v>297</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>2.5131532510278038</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.32997583843583006</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>3.5636553482003099E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0.7196914107364093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>1.0919257207758581E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>2.7298143019396453E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>43016</v>
+      </c>
+      <c r="D24">
+        <v>2469</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.15555448463579205</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>8.2403994394551425</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2.7431324750776582</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.71273106964006194</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>2.9629543672021637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>34025</v>
+      </c>
+      <c r="D25">
+        <v>5324</v>
+      </c>
+      <c r="E25">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>3.3550967274386521E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>6.5180302893681707</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>5.9151224371459907</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.36527467319053175</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>3.2079945917447703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>565</v>
+      </c>
+      <c r="D26">
+        <v>142</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>2.4400703472281106E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.10823474249795786</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.15776622578413424</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>1.7818276741001549E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>7.7054987123843691E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>329</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>2.4400703472281106E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>6.3025186339518827E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>9.9992678313887903E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.10690966044600929</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>7.358205714292429E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>1539</v>
+      </c>
+      <c r="D28">
+        <v>1592</v>
+      </c>
+      <c r="E28">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>7.3202110416843325E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.29481994460948169</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>1.7687593763967726</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>1.9511013031396696</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>1.0219706836406919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>311</v>
+      </c>
+      <c r="C29">
+        <v>971543</v>
+      </c>
+      <c r="D29">
+        <v>89348</v>
+      </c>
+      <c r="E29">
+        <v>2082</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.94857734748492806</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>186.11452465609466</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>99.268286910991733</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>18.548826087382611</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>76.220053750488489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>11186</v>
+      </c>
+      <c r="D30">
+        <v>727</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.11590334149333525</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2.1428563355436401</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.80771863482440553</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.2049101825215178</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>0.81784712359572465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>173</v>
+      </c>
+      <c r="C31">
+        <v>29811</v>
+      </c>
+      <c r="D31">
+        <v>160</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.52766521258807897</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>5.7107715196577375</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.17776476144691183</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.16036449066901393</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>1.6441414960904355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>18966</v>
+      </c>
+      <c r="D32">
+        <v>1419</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>9.1502638021054156E-3</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>3.6332391614447235</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>1.5765512280822993</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.13363707555751161</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1.33814443222166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B2:B32)</f>
+        <v>10575</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:E33" si="3">SUM(C2:C32)</f>
+        <v>3668241</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>402829</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>13153</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>32.254679902421586</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>702.70994700079905</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>447.55500680561278</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>117.18189698719668</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>324.92538267400755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>3278594</v>
+      </c>
+      <c r="C34">
+        <v>52201353</v>
+      </c>
+      <c r="D34">
+        <v>9000659</v>
+      </c>
+      <c r="E34">
+        <v>1122443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47685E42-5D10-4F81-A1BC-8E5F4F930565}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2.6474763267424999</v>
+      </c>
+      <c r="C2">
+        <v>51.001360060533301</v>
+      </c>
+      <c r="D2">
+        <v>69.162713530198175</v>
+      </c>
+      <c r="E2">
+        <v>17.809367602631049</v>
+      </c>
+      <c r="F2">
+        <v>35.155229380026256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>6.1875790843965293E-2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.5468947710991323E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.18605536397614345</v>
+      </c>
+      <c r="C4">
+        <v>18.389370099276928</v>
+      </c>
+      <c r="D4">
+        <v>26.484727396071776</v>
+      </c>
+      <c r="E4">
+        <v>4.2407498643583681</v>
+      </c>
+      <c r="F4">
+        <v>12.325225680920804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.2875145209358845</v>
+      </c>
+      <c r="D5">
+        <v>0.10888091638623348</v>
+      </c>
+      <c r="E5">
+        <v>4.4545691852503871E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.36023528229365542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6.1001758680702768E-2</v>
+      </c>
+      <c r="C6">
+        <v>5.5891271630449886</v>
+      </c>
+      <c r="D6">
+        <v>1.1476937410916244</v>
+      </c>
+      <c r="E6">
+        <v>0.14254621392801239</v>
+      </c>
+      <c r="F6">
+        <v>1.7350922191863321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2.250964895317932</v>
+      </c>
+      <c r="C7">
+        <v>3.7410907721108302</v>
+      </c>
+      <c r="D7">
+        <v>3.1875443786949376</v>
+      </c>
+      <c r="E7">
+        <v>0.22272845926251936</v>
+      </c>
+      <c r="F7">
+        <v>2.3505821263465547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.0500879340351382E-3</v>
+      </c>
+      <c r="C8">
+        <v>7.9745059481504246</v>
+      </c>
+      <c r="D8">
+        <v>0.47663176662953233</v>
+      </c>
+      <c r="E8">
+        <v>9.8000522075508509E-2</v>
+      </c>
+      <c r="F8">
+        <v>2.1380470811973753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3.0500879340351382E-3</v>
+      </c>
+      <c r="C9">
+        <v>3.1608376127722208E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.16665446385647983</v>
+      </c>
+      <c r="E9">
+        <v>3.5636553482003099E-2</v>
+      </c>
+      <c r="F9">
+        <v>5.9237370350060069E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2.4034692920196892</v>
+      </c>
+      <c r="C10">
+        <v>47.010658899971425</v>
+      </c>
+      <c r="D10">
+        <v>78.265380346039109</v>
+      </c>
+      <c r="E10">
+        <v>21.613569686834879</v>
+      </c>
+      <c r="F10">
+        <v>37.323269556216275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.85707470946387387</v>
+      </c>
+      <c r="C11">
+        <v>28.701171787635467</v>
+      </c>
+      <c r="D11">
+        <v>8.2738386155947019</v>
+      </c>
+      <c r="E11">
+        <v>0.80182245334506963</v>
+      </c>
+      <c r="F11">
+        <v>9.6584768915097783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2.4400703472281106E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.11225762673239523</v>
+      </c>
+      <c r="D12">
+        <v>0.4155251298821564</v>
+      </c>
+      <c r="E12">
+        <v>0.81073159171557041</v>
+      </c>
+      <c r="F12">
+        <v>0.34072876295060078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3.0500879340351384E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.22298272613738576</v>
+      </c>
+      <c r="D13">
+        <v>1.2865724609720244</v>
+      </c>
+      <c r="E13">
+        <v>2.3252851147007019</v>
+      </c>
+      <c r="F13">
+        <v>0.96633529528761586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.14030404496561635</v>
+      </c>
+      <c r="C14">
+        <v>0.88886584989473361</v>
+      </c>
+      <c r="D14">
+        <v>0.56995826638916103</v>
+      </c>
+      <c r="E14">
+        <v>6.2363968593505417E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.41537303246075408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>14.253060915746202</v>
+      </c>
+      <c r="C15">
+        <v>5.2649976332988917</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.8795146372612734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.21655624331649481</v>
+      </c>
+      <c r="C16">
+        <v>262.15948847149616</v>
+      </c>
+      <c r="D16">
+        <v>58.406834432900965</v>
+      </c>
+      <c r="E16">
+        <v>31.128529466529706</v>
+      </c>
+      <c r="F16">
+        <v>87.977852153560832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4.4826424326587858E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.2221327349475187E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.25836501274452245</v>
+      </c>
+      <c r="F17">
+        <v>7.8853191105146381E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7.2073577881250319</v>
+      </c>
+      <c r="C18">
+        <v>53.266627016353389</v>
+      </c>
+      <c r="D18">
+        <v>41.492517381227309</v>
+      </c>
+      <c r="E18">
+        <v>14.708987449696778</v>
+      </c>
+      <c r="F18">
+        <v>29.168872408850628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3.6601055208421662E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5669832734028945E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.666324987981435E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.7818276741001549E-2</v>
+      </c>
+      <c r="F19">
+        <v>3.1688103640816631E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>9.5782957962794561E-3</v>
+      </c>
+      <c r="D20">
+        <v>3.5552952289382364E-2</v>
+      </c>
+      <c r="E20">
+        <v>2.6727415111502322E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.7964665799291037E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2.1350615538245968E-2</v>
+      </c>
+      <c r="C21">
+        <v>1.576395922151673</v>
+      </c>
+      <c r="D21">
+        <v>45.170025883660294</v>
+      </c>
+      <c r="E21">
+        <v>0.59691227082355192</v>
+      </c>
+      <c r="F21">
+        <v>11.841171173043442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2.5131532510278038</v>
+      </c>
+      <c r="D22">
+        <v>0.32997583843583006</v>
+      </c>
+      <c r="E22">
+        <v>3.5636553482003099E-2</v>
+      </c>
+      <c r="F22">
+        <v>0.7196914107364093</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1.0919257207758581E-2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2.7298143019396453E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>0.15555448463579205</v>
+      </c>
+      <c r="C24">
+        <v>8.2403994394551425</v>
+      </c>
+      <c r="D24">
+        <v>2.7431324750776582</v>
+      </c>
+      <c r="E24">
+        <v>0.71273106964006194</v>
+      </c>
+      <c r="F24">
+        <v>2.9629543672021637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>3.3550967274386521E-2</v>
+      </c>
+      <c r="C25">
+        <v>6.5180302893681707</v>
+      </c>
+      <c r="D25">
+        <v>5.9151224371459907</v>
+      </c>
+      <c r="E25">
+        <v>0.36527467319053175</v>
+      </c>
+      <c r="F25">
+        <v>3.2079945917447703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>2.4400703472281106E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.10823474249795786</v>
+      </c>
+      <c r="D26">
+        <v>0.15776622578413424</v>
+      </c>
+      <c r="E26">
+        <v>1.7818276741001549E-2</v>
+      </c>
+      <c r="F26">
+        <v>7.7054987123843691E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>2.4400703472281106E-2</v>
+      </c>
+      <c r="C27">
+        <v>6.3025186339518827E-2</v>
+      </c>
+      <c r="D27">
+        <v>9.9992678313887903E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.10690966044600929</v>
+      </c>
+      <c r="F27">
+        <v>7.358205714292429E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>7.3202110416843325E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.29481994460948169</v>
+      </c>
+      <c r="D28">
+        <v>1.7687593763967726</v>
+      </c>
+      <c r="E28">
+        <v>1.9511013031396696</v>
+      </c>
+      <c r="F28">
+        <v>1.0219706836406919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>0.94857734748492806</v>
+      </c>
+      <c r="C29">
+        <v>186.11452465609466</v>
+      </c>
+      <c r="D29">
+        <v>99.268286910991733</v>
+      </c>
+      <c r="E29">
+        <v>18.548826087382611</v>
+      </c>
+      <c r="F29">
+        <v>76.220053750488489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0.11590334149333525</v>
+      </c>
+      <c r="C30">
+        <v>2.1428563355436401</v>
+      </c>
+      <c r="D30">
+        <v>0.80771863482440553</v>
+      </c>
+      <c r="E30">
+        <v>0.2049101825215178</v>
+      </c>
+      <c r="F30">
+        <v>0.81784712359572465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0.52766521258807897</v>
+      </c>
+      <c r="C31">
+        <v>5.7107715196577375</v>
+      </c>
+      <c r="D31">
+        <v>0.17776476144691183</v>
+      </c>
+      <c r="E31">
+        <v>0.16036449066901393</v>
+      </c>
+      <c r="F31">
+        <v>1.6441414960904355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>9.1502638021054156E-3</v>
+      </c>
+      <c r="C32">
+        <v>3.6332391614447235</v>
+      </c>
+      <c r="D32">
+        <v>1.5765512280822993</v>
+      </c>
+      <c r="E32">
+        <v>0.13363707555751161</v>
+      </c>
+      <c r="F32">
+        <v>1.33814443222166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>32.254679902421586</v>
+      </c>
+      <c r="C33">
+        <v>702.70994700079905</v>
+      </c>
+      <c r="D33">
+        <v>447.55500680561278</v>
+      </c>
+      <c r="E33">
+        <v>117.18189698719668</v>
+      </c>
+      <c r="F33">
+        <v>324.92538267400755</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A398B-F594-4B64-8DA8-37F30C71A78F}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>266234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>130429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>95995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>29176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>19529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>41628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>245402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>149824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>585172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>278059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>13119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>34025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>971543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>11186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>29811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>18966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trino_res_final/Keyword.xlsx
+++ b/trino_res_final/Keyword.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive\Desktop\rbda-ml-inference\rbda-ml-inference\trino_res_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96617415-6442-4D0F-8A52-73752E257AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC59B33-E154-40DE-AFBC-4E58BE15A1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16140" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="for_csv" sheetId="5" r:id="rId4"/>
-    <sheet name="reddit_new" sheetId="4" r:id="rId5"/>
+    <sheet name="all_cword" sheetId="6" r:id="rId3"/>
+    <sheet name="new" sheetId="3" r:id="rId4"/>
+    <sheet name="for_csv" sheetId="5" r:id="rId5"/>
+    <sheet name="reddit_new" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="53">
   <si>
     <t>Word</t>
   </si>
@@ -193,6 +194,9 @@
   </si>
   <si>
     <t>sh\*t</t>
+  </si>
+  <si>
+    <t>Platform</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1419,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L34"/>
+      <selection activeCell="H33" sqref="H33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2769,11 +2773,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBACCC70-A102-465E-87D7-CBFCF94D570F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>32.254679902421586</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1555.0579694744695</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>447.55500680561278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1620.0109938767494</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>913.71966251481331</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A10C70F-A3BE-4E79-B2DE-CE16F5C5F436}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4119,11 +4189,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47685E42-5D10-4F81-A1BC-8E5F4F930565}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
@@ -4794,7 +4864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A398B-F594-4B64-8DA8-37F30C71A78F}">
   <dimension ref="A1:B32"/>
   <sheetViews>
